--- a/bioSample/bioSample_J.PLAGGENBERG_06.20.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_06.20.19.xlsx
@@ -1,158 +1,247 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
   <si>
-    <t>harvestDate</t>
-  </si>
-  <si>
-    <t>harvester</t>
-  </si>
-  <si>
-    <t>biosampleNumber</t>
-  </si>
-  <si>
-    <t>experimentDesign</t>
-  </si>
-  <si>
-    <t>experimentObservations</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>floodmedia</t>
-  </si>
-  <si>
-    <t>inductionDelay</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>timePoint</t>
-  </si>
-  <si>
-    <t>replicate</t>
-  </si>
-  <si>
-    <t>06.20.19</t>
-  </si>
-  <si>
-    <t>J.PLAGGENBERG</t>
-  </si>
-  <si>
-    <t>ZEV_flood_media_delay_2</t>
-  </si>
-  <si>
-    <t>BY4741</t>
-  </si>
-  <si>
-    <t>PBS</t>
-  </si>
-  <si>
-    <t>EtoH</t>
-  </si>
-  <si>
-    <t>Estradiol</t>
-  </si>
-  <si>
-    <t>SCGal</t>
+    <t xml:space="preserve">harvestDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biosampleNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experimentDesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experimentObservations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genotype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floodmedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inductionDelay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timePoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.20.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEV_flood_media_delay_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY4741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EtOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estradiol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCGal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -204,15 +293,15 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
-        <v>1.0</v>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -225,28 +314,28 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="K2" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
-        <v>2.0</v>
+      <c r="C3" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -259,28 +348,28 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3">
-        <v>1.0</v>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="K3" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
-        <v>3.0</v>
+      <c r="C4" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -293,28 +382,28 @@
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3">
-        <v>15.0</v>
+      <c r="I4" s="3" t="n">
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="K4" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>4.0</v>
+      <c r="C5" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -327,28 +416,28 @@
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="K5" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
-        <v>5.0</v>
+      <c r="C6" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -361,28 +450,28 @@
       <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3">
-        <v>1.0</v>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="K6" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
-        <v>6.0</v>
+      <c r="C7" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -395,28 +484,28 @@
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3">
-        <v>15.0</v>
+      <c r="I7" s="3" t="n">
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="K7" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0</v>
+      <c r="C8" s="3" t="n">
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -429,28 +518,28 @@
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="K8" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
-        <v>8.0</v>
+      <c r="C9" s="3" t="n">
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
@@ -463,28 +552,28 @@
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="3">
-        <v>1.0</v>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="K9" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>9.0</v>
+      <c r="C10" s="3" t="n">
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
@@ -497,28 +586,28 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="3">
-        <v>15.0</v>
+      <c r="I10" s="3" t="n">
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="K10" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
-        <v>10.0</v>
+      <c r="C11" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -531,28 +620,28 @@
       <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="K11" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
-        <v>11.0</v>
+      <c r="C12" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -565,28 +654,28 @@
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3">
-        <v>1.0</v>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="K12" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>12.0</v>
+      <c r="C13" s="3" t="n">
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -599,20 +688,26 @@
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="3">
-        <v>15.0</v>
+      <c r="I13" s="3" t="n">
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>3.0</v>
+      <c r="K13" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/bioSample/bioSample_J.PLAGGENBERG_06.20.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_06.20.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,6 +122,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -130,6 +136,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -180,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +197,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,15 +212,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,7 +244,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,14 +252,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -294,410 +305,410 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="L7" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L8" s="7" t="n">
+      <c r="K8" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="n">
+      <c r="K9" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L10" s="7" t="n">
+      <c r="K10" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L10" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" s="7" t="n">
+      <c r="K11" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L12" s="7" t="n">
+      <c r="K12" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="L13" s="7" t="n">
+      <c r="K13" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" s="8" t="n">
         <v>3</v>
       </c>
     </row>
